--- a/proyecto/iteraciones/sprint-19/Burndown Sprint 19.xlsx
+++ b/proyecto/iteraciones/sprint-19/Burndown Sprint 19.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -49,9 +49,6 @@
     <t xml:space="preserve">Tiempo total restante </t>
   </si>
   <si>
-    <t>#US47 Crear manual de usuario definitivo</t>
-  </si>
-  <si>
     <t>#US97 Agregar funcionalidad al boton imprimir</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>#US98 Sacar Boton visualizar de interfaz</t>
+  </si>
+  <si>
+    <t>#US47 Crear documento de testing</t>
   </si>
 </sst>
 </file>
@@ -670,70 +670,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>95</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>95</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>95</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>95</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>95</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>95</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>95</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>95</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>95</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>95</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>95</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -747,11 +747,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="65625472"/>
-        <c:axId val="65627648"/>
+        <c:axId val="77286784"/>
+        <c:axId val="77288960"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="65625472"/>
+        <c:axId val="77286784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -794,7 +794,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65627648"/>
+        <c:crossAx val="77288960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -802,7 +802,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65627648"/>
+        <c:axId val="77288960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -846,7 +846,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65625472"/>
+        <c:crossAx val="77286784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1196,7 +1196,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1473,46 +1473,76 @@
     </row>
     <row r="3" spans="1:66" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" s="25">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C3" s="26">
-        <f>IF(B3&lt;SUM(E3:BL3),SUM(E3:BL3),B3)</f>
-        <v>40</v>
+        <f>IF(B3&lt;SUM(F3:BL3),SUM(F3:BL3),B3)</f>
+        <v>25</v>
       </c>
       <c r="D3" s="28">
-        <f>IF(C3&gt;B3,$C3-(SUM($E3:$BL3)),$B3-(SUM($E3:$BL3)))</f>
-        <v>40</v>
-      </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+        <f>IF(C3&gt;B3,$C3-(SUM($F3:$BL3)),$B3-(SUM($F3:$BL3)))</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="28">
+        <v>0</v>
+      </c>
+      <c r="F3" s="28">
+        <v>5</v>
+      </c>
+      <c r="G3" s="28">
+        <v>2</v>
+      </c>
+      <c r="H3" s="28">
+        <v>5</v>
+      </c>
+      <c r="I3" s="28">
+        <v>3</v>
+      </c>
       <c r="J3" s="28" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
+      <c r="L3" s="28">
+        <v>10</v>
+      </c>
+      <c r="M3" s="28">
+        <v>0</v>
+      </c>
+      <c r="N3" s="28">
+        <v>0</v>
+      </c>
+      <c r="O3" s="28">
+        <v>0</v>
+      </c>
+      <c r="P3" s="28">
+        <v>0</v>
+      </c>
       <c r="Q3" s="28" t="s">
         <v>4</v>
       </c>
       <c r="R3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
+      <c r="S3" s="28">
+        <v>0</v>
+      </c>
+      <c r="T3" s="28">
+        <v>0</v>
+      </c>
+      <c r="U3" s="28">
+        <v>0</v>
+      </c>
+      <c r="V3" s="28">
+        <v>0</v>
+      </c>
+      <c r="W3" s="28">
+        <v>0</v>
+      </c>
       <c r="X3" s="28" t="s">
         <v>4</v>
       </c>
@@ -1562,46 +1592,76 @@
     </row>
     <row r="4" spans="1:66" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4" s="26">
         <f t="shared" ref="C4:C7" si="0">IF(B4&lt;SUM(E4:BL4),SUM(E4:BL4),B4)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D4" s="28">
         <f t="shared" ref="D4:D7" si="1">IF(C4&gt;B4,$C4-(SUM($E4:$BL4)),$B4-(SUM($E4:$BL4)))</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="28">
         <v>10</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="F4" s="28">
+        <v>0</v>
+      </c>
+      <c r="G4" s="28">
+        <v>10</v>
+      </c>
+      <c r="H4" s="28">
+        <v>0</v>
+      </c>
+      <c r="I4" s="28">
+        <v>0</v>
+      </c>
       <c r="J4" s="28" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
+      <c r="L4" s="28">
+        <v>0</v>
+      </c>
+      <c r="M4" s="28">
+        <v>0</v>
+      </c>
+      <c r="N4" s="28">
+        <v>0</v>
+      </c>
+      <c r="O4" s="28">
+        <v>0</v>
+      </c>
+      <c r="P4" s="28">
+        <v>0</v>
+      </c>
       <c r="Q4" s="28" t="s">
         <v>4</v>
       </c>
       <c r="R4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
+      <c r="S4" s="28">
+        <v>0</v>
+      </c>
+      <c r="T4" s="28">
+        <v>0</v>
+      </c>
+      <c r="U4" s="28">
+        <v>0</v>
+      </c>
+      <c r="V4" s="28">
+        <v>0</v>
+      </c>
+      <c r="W4" s="28">
+        <v>0</v>
+      </c>
       <c r="X4" s="28" t="s">
         <v>4</v>
       </c>
@@ -1651,46 +1711,76 @@
     </row>
     <row r="5" spans="1:66" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D5" s="28">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0</v>
+      </c>
+      <c r="F5" s="28">
+        <v>0</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0</v>
+      </c>
+      <c r="H5" s="28">
+        <v>0</v>
+      </c>
+      <c r="I5" s="28">
+        <v>0</v>
+      </c>
       <c r="J5" s="28" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
+      <c r="L5" s="28">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28">
+        <v>0</v>
+      </c>
+      <c r="N5" s="28">
+        <v>0</v>
+      </c>
+      <c r="O5" s="28">
+        <v>0</v>
+      </c>
+      <c r="P5" s="28">
+        <v>0</v>
+      </c>
       <c r="Q5" s="28" t="s">
         <v>4</v>
       </c>
       <c r="R5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
+      <c r="S5" s="28">
+        <v>0</v>
+      </c>
+      <c r="T5" s="28">
+        <v>5</v>
+      </c>
+      <c r="U5" s="28">
+        <v>10</v>
+      </c>
+      <c r="V5" s="28">
+        <v>3</v>
+      </c>
+      <c r="W5" s="28">
+        <v>2</v>
+      </c>
       <c r="X5" s="28" t="s">
         <v>4</v>
       </c>
@@ -1740,46 +1830,76 @@
     </row>
     <row r="6" spans="1:66" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="25">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" s="26">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" s="28">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="28">
+        <v>0</v>
+      </c>
+      <c r="F6" s="28">
+        <v>5</v>
+      </c>
+      <c r="G6" s="28">
+        <v>0</v>
+      </c>
+      <c r="H6" s="28">
+        <v>10</v>
+      </c>
+      <c r="I6" s="28">
+        <v>0</v>
+      </c>
       <c r="J6" s="28" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
+      <c r="L6" s="28">
+        <v>0</v>
+      </c>
+      <c r="M6" s="28">
+        <v>10</v>
+      </c>
+      <c r="N6" s="28">
+        <v>0</v>
+      </c>
+      <c r="O6" s="28">
+        <v>0</v>
+      </c>
+      <c r="P6" s="28">
+        <v>0</v>
+      </c>
       <c r="Q6" s="28" t="s">
         <v>4</v>
       </c>
       <c r="R6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
+      <c r="S6" s="28">
+        <v>0</v>
+      </c>
+      <c r="T6" s="28">
+        <v>0</v>
+      </c>
+      <c r="U6" s="28">
+        <v>0</v>
+      </c>
+      <c r="V6" s="28">
+        <v>0</v>
+      </c>
+      <c r="W6" s="28">
+        <v>0</v>
+      </c>
       <c r="X6" s="28" t="s">
         <v>4</v>
       </c>
@@ -1829,7 +1949,7 @@
     </row>
     <row r="7" spans="1:66" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="25">
         <v>15</v>
@@ -1840,35 +1960,65 @@
       </c>
       <c r="D7" s="28">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0</v>
+      </c>
+      <c r="F7" s="28">
+        <v>0</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0</v>
+      </c>
+      <c r="H7" s="28">
+        <v>0</v>
+      </c>
+      <c r="I7" s="28">
+        <v>0</v>
+      </c>
       <c r="J7" s="28" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
+      <c r="L7" s="28">
+        <v>0</v>
+      </c>
+      <c r="M7" s="28">
+        <v>0</v>
+      </c>
+      <c r="N7" s="28">
+        <v>0</v>
+      </c>
+      <c r="O7" s="28">
+        <v>5</v>
+      </c>
+      <c r="P7" s="28">
+        <v>0</v>
+      </c>
       <c r="Q7" s="28" t="s">
         <v>4</v>
       </c>
       <c r="R7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
+      <c r="S7" s="28">
+        <v>10</v>
+      </c>
+      <c r="T7" s="28">
+        <v>0</v>
+      </c>
+      <c r="U7" s="28">
+        <v>0</v>
+      </c>
+      <c r="V7" s="28">
+        <v>0</v>
+      </c>
+      <c r="W7" s="28">
+        <v>0</v>
+      </c>
       <c r="X7" s="28" t="s">
         <v>4</v>
       </c>
@@ -1949,35 +2099,35 @@
       </c>
       <c r="B9" s="30">
         <f t="shared" ref="B9:I9" si="2">SUM(B3:B8)</f>
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C9" s="30">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D9" s="30">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="E9" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F9" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G9" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H9" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(H3:H8)</f>
+        <v>15</v>
       </c>
       <c r="I9" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="30">
         <f>SUM(J4:J8)</f>
@@ -1989,11 +2139,11 @@
       </c>
       <c r="L9" s="30">
         <f t="shared" ref="L9:AQ9" si="3">SUM(L3:L8)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M9" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N9" s="30">
         <f t="shared" si="3"/>
@@ -2001,7 +2151,7 @@
       </c>
       <c r="O9" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P9" s="30">
         <f t="shared" si="3"/>
@@ -2017,23 +2167,23 @@
       </c>
       <c r="S9" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T9" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U9" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V9" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W9" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X9" s="30">
         <f t="shared" si="3"/>
@@ -2116,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="AR9" s="4">
-        <f t="shared" ref="AR9:BW9" si="4">SUM(AR3:AR8)</f>
+        <f t="shared" ref="AR9:BL9" si="4">SUM(AR3:AR8)</f>
         <v>0</v>
       </c>
       <c r="AS9" s="4">
@@ -2572,7 +2722,7 @@
       </c>
       <c r="D12" s="17">
         <f>C9</f>
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E12" s="17">
         <f>$C$9-SUM(E$3:E$8)</f>
@@ -2580,239 +2730,239 @@
       </c>
       <c r="F12" s="17">
         <f>E12-SUM(F3:F8)</f>
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G12" s="17">
         <f>F12-SUM(G3:G8)</f>
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="H12" s="17">
         <f>G12-SUM(H3:H8)</f>
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="I12" s="17">
         <f>H12-SUM(I3:I8)</f>
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="J12" s="17">
         <f>I12-SUM(J4:J8)</f>
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="K12" s="17">
         <f>J12-SUM(K4:K8)</f>
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="L12" s="17">
         <f t="shared" ref="L12:AQ12" si="6">K12-SUM(L3:L8)</f>
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="M12" s="17">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="N12" s="17">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="O12" s="17">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="P12" s="17">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="17">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="R12" s="17">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="S12" s="17">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="T12" s="17">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="U12" s="17">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="V12" s="17">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="W12" s="17">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="X12" s="17">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="17">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="6">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="6">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="6">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="6">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="6">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="6">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="6">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="6">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="6">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="6">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="6">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="6">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="6">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="6">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="6">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="6">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="6">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="6">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="6">
         <f t="shared" ref="AR12:BL12" si="7">AQ12-SUM(AR3:AR8)</f>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AS12" s="6">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="6">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="6">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="6">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AW12" s="6">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="6">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="6">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="6">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="6">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="6">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="6">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="6">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="6">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="6">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="6">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="BH12" s="6">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="6">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="BJ12" s="6">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="BK12" s="6">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="BL12" s="6">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:66" ht="18" x14ac:dyDescent="0.25">
